--- a/templates/community/FAIRagro/Agronomy_-_Planting/Agronomy_-_Planting_v1.0.0.xlsx
+++ b/templates/community/FAIRagro/Agronomy_-_Planting/Agronomy_-_Planting_v1.0.0.xlsx
@@ -173,7 +173,7 @@
     <t>0000-0001-6007-7948</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
+    <t>Input [Sample Name]</t>
   </si>
   <si>
     <t>Characteristic [planting material]</t>
@@ -299,7 +299,7 @@
     <t>Term Accession Number (bco:eventRemarks)</t>
   </si>
   <si>
-    <t>Output [Source Name]</t>
+    <t>Output [Sample Name]</t>
   </si>
   <si>
     <t/>
@@ -450,7 +450,7 @@
     <filterColumn colId="42" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="43">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Characteristic [planting material]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (AGRO:00000032)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (AGRO:00000032)" totalsRowFunction="none"/>
@@ -492,7 +492,7 @@
     <tableColumn id="40" name="Characteristic [Event Remarks]" totalsRowFunction="none"/>
     <tableColumn id="41" name="Term Source REF (bco:eventRemarks)" totalsRowFunction="none"/>
     <tableColumn id="42" name="Term Accession Number (bco:eventRemarks)" totalsRowFunction="none"/>
-    <tableColumn id="43" name="Output [Source Name]" totalsRowFunction="none"/>
+    <tableColumn id="43" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
